--- a/pilot-study/report/correlation/signedup-participants/SimpleCorrPairAnalysis-weak.xlsx
+++ b/pilot-study/report/correlation/signedup-participants/SimpleCorrPairAnalysis-weak.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="weak__1" r:id="rId3" sheetId="1"/>
+    <sheet name="weak_spearman_1" r:id="rId3" sheetId="1"/>
     <sheet name="weak_spearman_2" r:id="rId4" sheetId="2"/>
     <sheet name="weak_spearman_3" r:id="rId5" sheetId="3"/>
     <sheet name="weak_spearman_6" r:id="rId6" sheetId="4"/>
-    <sheet name="weak__10" r:id="rId7" sheetId="5"/>
+    <sheet name="weak_spearman_10" r:id="rId7" sheetId="5"/>
     <sheet name="weak_spearman_12" r:id="rId8" sheetId="6"/>
-    <sheet name="weak__19" r:id="rId9" sheetId="7"/>
+    <sheet name="weak_spearman_19" r:id="rId9" sheetId="7"/>
     <sheet name="weak_spearman_21" r:id="rId10" sheetId="8"/>
     <sheet name="weak_spearman_24" r:id="rId11" sheetId="9"/>
     <sheet name="weak_spearman_30" r:id="rId12" sheetId="10"/>
@@ -26,7 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="79">
   <si>
-    <t xml:space="preserve">Correlation information for Gains in Skill/Knowledge - Intrinsic Motivation in main using the method: </t>
+    <t>Correlation information for Gains in Skill/Knowledge - Intrinsic Motivation in main using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -158,7 +158,7 @@
     <t>Data full source for Gains in Skill/Knowledge - Intrinsic Motivation in non-gamified.Apprentice</t>
   </si>
   <si>
-    <t xml:space="preserve">Correlation information for Gains in Skill/Knowledge - Interest/Enjoyment in main using the method: </t>
+    <t>Correlation information for Gains in Skill/Knowledge - Interest/Enjoyment in main using the method: spearman</t>
   </si>
   <si>
     <t>Interest/Enjoyment</t>
@@ -182,7 +182,7 @@
     <t>Data full source for Gains in Skill/Knowledge - Interest/Enjoyment in ont-gamified</t>
   </si>
   <si>
-    <t xml:space="preserve">Correlation information for Gains in Skill/Knowledge - Perceived Choice in main using the method: </t>
+    <t>Correlation information for Gains in Skill/Knowledge - Perceived Choice in main using the method: spearman</t>
   </si>
   <si>
     <t>Perceived Choice</t>
